--- a/Income/MCO_inc.xlsx
+++ b/Income/MCO_inc.xlsx
@@ -1985,16 +1985,16 @@
         <v>0.6844</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.6925</v>
+        <v>0.7019</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.6991</v>
+        <v>0.7087</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.7018</v>
+        <v>0.7119</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.7024</v>
+        <v>0.7128</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.713</v>
@@ -2239,16 +2239,16 @@
         <v>0.415</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.4292</v>
+        <v>0.4294</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4223</v>
+        <v>0.4225</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.394</v>
+        <v>0.3942</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3746</v>
+        <v>0.3748</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.3607</v>
@@ -2487,22 +2487,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4209</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.3822</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.3549</v>
+        <v>0.353</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3492</v>
+        <v>0.3472</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3201</v>
+        <v>0.3181</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3346</v>
+        <v>0.3326</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.3186</v>
@@ -3509,16 +3509,16 @@
         <v>0.4966</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.5072</v>
+        <v>0.5062</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.4946</v>
+        <v>0.4937</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.4702</v>
+        <v>0.4692</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.4562</v>
+        <v>0.4552</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.4443</v>
@@ -3630,22 +3630,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4378</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.4014</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.372</v>
+        <v>0.3702</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3669</v>
+        <v>0.3649</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.3341</v>
+        <v>0.3321</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.3489</v>
+        <v>0.3469</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.3377</v>
